--- a/Licence.xlsx
+++ b/Licence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python projects\Software protection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python projects\Protection exec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BBE94-9927-46DE-A7E5-EAE364AE5380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43B7B81-205A-48E7-849A-7AC629564A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{478D7AB2-629E-4355-964B-5644F096765A}"/>
   </bookViews>
@@ -33,15 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Ma</t>
-  </si>
-  <si>
-    <t>Gui</t>
-  </si>
-  <si>
-    <t>Bira</t>
+    <t>703f56a864ff66a496fc3ed5b8ce5a8b5fc80ee986da99505db0f62b25878cc2</t>
   </si>
 </sst>
 </file>
@@ -393,64 +387,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B56A80-547C-43F0-82AB-22B8D6F5E57D}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>555444666</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>333555777</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>999888777</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>111222333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>777444333</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>